--- a/Trabajos Practicos/TP08_14052024/TP08_SCRUM_4K4_G1.xlsx
+++ b/Trabajos Practicos/TP08_14052024/TP08_SCRUM_4K4_G1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amarcomini\Documents\UTN\GitHub\ICS_2024_4K4_G1\Trabajos Practicos\TP08_14052024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF94CBF-80C6-4B38-9692-13F3C5C647B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DC8971-4582-4951-BE22-A73877E33D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31605" yWindow="4245" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minuta para Sprint Planning" sheetId="1" r:id="rId1"/>
@@ -543,13 +543,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545EF584-8883-4B98-BDF5-9454CAFC42A2}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB5E1BC-B845-4E64-97D3-6BBD8DC3ED9E}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
